--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Egyetem\Gepelemek1HF-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agi\Desktop\Egyetem\Harmadik félév\Gépelemek\Gépelemek_HF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867F099-47F4-4E8D-A292-290D8ACC5D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -62,8 +63,20 @@
     <definedName name="tau">Munkalap1!$F$41</definedName>
     <definedName name="z">Munkalap1!$J$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -415,7 +428,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;M&quot;0"/>
   </numFmts>
@@ -558,41 +571,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -808,37 +815,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -855,19 +862,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <f>G1/10</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -878,96 +885,96 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -987,13 +994,13 @@
       <c r="L12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1003,7 +1010,7 @@
       <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <f t="shared" ref="D13:D14" si="0">B13</f>
         <v>140</v>
       </c>
@@ -1025,7 +1032,7 @@
       <c r="J13" s="4">
         <v>290</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="1">
@@ -1034,12 +1041,12 @@
       <c r="N13" s="1">
         <v>6</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="1">
         <f t="shared" ref="O13:O22" si="1">M13*N13*10</f>
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1049,14 +1056,14 @@
       <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f>csavarM</f>
         <v>16</v>
       </c>
@@ -1072,7 +1079,7 @@
       <c r="J14" s="4">
         <v>1.5</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="M14" s="1">
@@ -1081,12 +1088,12 @@
       <c r="N14" s="1">
         <v>6</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="1">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1111,8 +1118,8 @@
       <c r="H15" s="4">
         <v>80</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="L15" s="11" t="s">
+      <c r="I15" s="3"/>
+      <c r="L15" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M15" s="1">
@@ -1121,12 +1128,12 @@
       <c r="N15" s="1">
         <v>8</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="1">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1148,14 +1155,14 @@
       <c r="G16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <f>(Dw+csavarM)/2</f>
         <v>19.25</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>51</v>
       </c>
       <c r="M16" s="1">
@@ -1164,12 +1171,12 @@
       <c r="N16" s="1">
         <v>6</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="1">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1179,7 +1186,7 @@
       <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <f>B15</f>
         <v>78</v>
       </c>
@@ -1195,7 +1202,7 @@
       <c r="J17" s="4">
         <v>32</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M17" s="1">
@@ -1204,16 +1211,16 @@
       <c r="N17" s="1">
         <v>8</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="4">
         <f>I1</f>
         <v>32</v>
       </c>
@@ -1226,11 +1233,11 @@
       <c r="E18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="1">
         <f>ATAN(F13/(F15*PI()))</f>
         <v>4.3277482648311209E-2</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <f t="shared" ref="G18:G20" si="2">DEGREES(F18)</f>
         <v>2.4796171036988852</v>
       </c>
@@ -1240,7 +1247,7 @@
       <c r="J18" s="4">
         <v>78</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>58</v>
       </c>
       <c r="M18" s="1">
@@ -1249,12 +1256,12 @@
       <c r="N18" s="1">
         <v>8</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="1">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1268,21 +1275,21 @@
       <c r="E19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="1">
         <f>ATAN(H26/(COS(RADIANS(F17/2))))</f>
         <v>0.11496092050070644</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <f t="shared" si="2"/>
         <v>6.5867755536294617</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>61</v>
       </c>
       <c r="M19" s="1">
@@ -1291,12 +1298,12 @@
       <c r="N19" s="1">
         <v>8</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="1">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1306,11 +1313,11 @@
       <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="1">
         <f>ATAN(H27/(COS(RADIANS(F17/2))))</f>
         <v>0.16027153085453782</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <f t="shared" si="2"/>
         <v>9.1828822940657702</v>
       </c>
@@ -1320,7 +1327,7 @@
       <c r="J20" s="4">
         <v>3</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>64</v>
       </c>
       <c r="M20" s="1">
@@ -1329,26 +1336,26 @@
       <c r="N20" s="1">
         <v>8</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="1">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <f>(d1vk-DN)/2</f>
         <v>5.75</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M21" s="1">
@@ -1357,26 +1364,26 @@
       <c r="N21" s="1">
         <v>9</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="13">
         <v>16</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="12">
         <f>0.5*bt</f>
         <v>1.5</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>69</v>
       </c>
       <c r="M22" s="1">
@@ -1385,12 +1392,12 @@
       <c r="N22" s="1">
         <v>9</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="1">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1400,11 +1407,11 @@
       <c r="I23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1431,7 +1438,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
@@ -1453,11 +1460,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <f>(DN+Dfour)/2</f>
         <v>55</v>
       </c>
@@ -1468,83 +1475,83 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="12">
         <f>(Dt/2)*SQRT(((3*Pu)/szigma_hajl)*(1-(2*Dt)/(3*K)))</f>
         <v>4.1643240541036439</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <f>((DN^2*PI())/4)*Pu</f>
         <v>2814.8670176164546</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <f>(Dt^2/4)*((3*Pu)/b^2)*(1-((2*Dt)/(3*K)))</f>
         <v>15.521797839506172</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="12">
         <f>(((Dt^2-DN^2)/4)*PI())*Pu</f>
         <v>5500.5360373540288</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <f>szigma_hajl/szigma</f>
         <v>18.683402721680235</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <f>nt*Pu*PI()*Dt*Bstar_t</f>
         <v>1360.7023180860792</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <f>SUM(Ftomossz)</f>
         <v>9676.1053730565636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <f>n2bizt*Fcsu</f>
         <v>14514.158059584846</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <f>Fcssz/n</f>
         <v>3628.5395148962116</v>
       </c>
@@ -1555,113 +1562,113 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <f>Mcsmin+Mamin</f>
         <v>7748.5198783605974</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="12">
         <f>Fv/Ae</f>
         <v>23.16100002324999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="12">
         <f>Mcsmax+Mamax</f>
         <v>10394.672641641784</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="12">
         <f>(((d2cs+d3cs)/2)^2*PI()/4)</f>
         <v>156.66592596406591</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="12">
         <f>Fv*(d2cs/2)*TAN(alfacs+romin)</f>
         <v>4256.0505952729927</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="12">
         <f>Mamax/Kp</f>
         <v>8.8390122933633641</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <f>Fv*(d2cs/2)*TAN(alfacs+romax)</f>
         <v>5505.2156453191374</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="24" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="12">
         <f>((d2cs+d3cs)/2)^3*PI()/16</f>
         <v>553.16780133837119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="20">
         <f>Fv*(Da/2)*surmin</f>
         <v>3492.4692830876043</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="20">
         <f>Fv*(Da/2)*surmax</f>
         <v>4889.4569963226459</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="12">
         <f>SQRT(szigma4^2+3*tau^2)</f>
         <v>27.763579326946878</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="14" t="e">
-        <f t="array" aca="1" ref="E46" ca="1">XLOOKUP(red,folyhatarok,szilosztalyok,INDEX(szilosztalyok,1,1),-1,1)</f>
+      <c r="E46" s="12" t="e">
+        <f t="array" aca="1" ref="E46" ca="1">_xludf.XLOOKUP(red,folyhatarok,szilosztalyok,INDEX(szilosztalyok,1,1),-1,1)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>103</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
         <v>105</v>
       </c>
@@ -1680,11 +1687,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="4:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
         <f>Reh/red</f>
         <v>6.4833139084950382</v>
       </c>
@@ -1694,14 +1701,14 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="C4" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agi\Desktop\Egyetem\Harmadik félév\Gépelemek\Gépelemek_HF1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Gepelemek1HF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867F099-47F4-4E8D-A292-290D8ACC5D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42076DEA-84EA-4232-982A-4A588A27214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -407,9 +410,6 @@
     <t>DIN/EN PN40 Blind Flange</t>
   </si>
   <si>
-    <t>https://globalsupplyline.com.au/wp-content/uploads/2014/10/Flange-Dim-EN1092-1-BS4504.pdf</t>
-  </si>
-  <si>
     <t>https://www.heco.de/en/stainless-steel/flanges/blind-flanges/din-en/more-sealing-surfaces/with-raised-face/pn-40.html</t>
   </si>
   <si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>MSZ EN ISO 4014</t>
+  </si>
+  <si>
+    <t>https://www.heco.de/en/stainless-steel/flanges/welding-neck-flanges/pn-40.html</t>
   </si>
 </sst>
 </file>
@@ -825,21 +828,21 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -862,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -874,7 +877,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -885,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,10 +896,10 @@
         <v>107</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,10 +907,10 @@
         <v>106</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -918,18 +921,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -940,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -951,15 +954,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="2" t="s">
@@ -969,12 +972,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>52</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>61</v>
@@ -1303,7 +1306,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>67</v>
@@ -1369,7 +1372,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1408,10 +1411,10 @@
         <v>71</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>2814.8670176164546</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>5500.5360373540288</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>1360.7023180860792</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>85</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>9676.1053730565636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
@@ -1541,13 +1544,13 @@
         <v>14514.158059584846</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>91</v>
       </c>
@@ -1581,7 +1584,7 @@
         <v>23.16100002324999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>93</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>156.66592596406591</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>8.8390122933633641</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>98</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>553.16780133837119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>3492.4692830876043</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>27.763579326946878</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
         <v>103</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
         <v>105</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="4:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
         <v>70</v>
       </c>
